--- a/oev_avec_comptage.xlsx
+++ b/oev_avec_comptage.xlsx
@@ -11988,13 +11988,13 @@
         <v>755</v>
       </c>
       <c r="I267" s="2">
-        <v>45435</v>
+        <v>45811</v>
       </c>
       <c r="J267" s="2">
         <v>42541</v>
       </c>
       <c r="K267" s="2">
-        <v>45470</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="268" spans="1:11">
